--- a/AutomaticResumeFilter/src/resources/RecuitmentData.xlsx
+++ b/AutomaticResumeFilter/src/resources/RecuitmentData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksaravanakumar\Documents\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB49F69-50D5-49E1-9ED3-3EADCD828A08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA44ACD-2C1E-4E56-9599-5F77573E4B67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F711A54A-70A9-46A6-B3B1-B4B5E3D10753}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F711A54A-70A9-46A6-B3B1-B4B5E3D10753}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,10 @@
     <t>04302022</t>
   </si>
   <si>
-    <t>Sdet</t>
-  </si>
-  <si>
     <t>For Hr</t>
+  </si>
+  <si>
+    <t>Recruiter Specialist</t>
   </si>
 </sst>
 </file>
@@ -425,20 +425,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,12 +458,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/AutomaticResumeFilter/src/resources/RecuitmentData.xlsx
+++ b/AutomaticResumeFilter/src/resources/RecuitmentData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksaravanakumar\Documents\New folder\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA44ACD-2C1E-4E56-9599-5F77573E4B67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69DD99D-5431-4BB2-84CF-4388BCFDA35D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F711A54A-70A9-46A6-B3B1-B4B5E3D10753}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F711A54A-70A9-46A6-B3B1-B4B5E3D10753}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Recruitment name</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Recruiter Specialist</t>
+  </si>
+  <si>
+    <t>03262022</t>
+  </si>
+  <si>
+    <t>03292022</t>
   </si>
 </sst>
 </file>
@@ -422,23 +428,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16336213-3BD8-4C55-85C1-9C8C265C29B9}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -476,6 +482,14 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/AutomaticResumeFilter/src/resources/RecuitmentData.xlsx
+++ b/AutomaticResumeFilter/src/resources/RecuitmentData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksaravanakumar\Documents\New folder\AutomaticResumeFilter\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69DD99D-5431-4BB2-84CF-4388BCFDA35D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE47D9-8BA1-4787-AB54-A458293FF41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F711A54A-70A9-46A6-B3B1-B4B5E3D10753}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F711A54A-70A9-46A6-B3B1-B4B5E3D10753}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,13 +69,13 @@
     <t>For Hr</t>
   </si>
   <si>
-    <t>Recruiter Specialist</t>
-  </si>
-  <si>
     <t>03262022</t>
   </si>
   <si>
     <t>03292022</t>
+  </si>
+  <si>
+    <t>ASE 2022</t>
   </si>
 </sst>
 </file>
@@ -431,20 +431,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,9 +464,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -484,12 +484,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/AutomaticResumeFilter/src/resources/RecuitmentData.xlsx
+++ b/AutomaticResumeFilter/src/resources/RecuitmentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE47D9-8BA1-4787-AB54-A458293FF41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F5504-5BF0-4A08-8DDB-485895BFE88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F711A54A-70A9-46A6-B3B1-B4B5E3D10753}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>03292022</t>
   </si>
   <si>
-    <t>ASE 2022</t>
+    <t>ASE 2021</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/AutomaticResumeFilter/src/resources/RecuitmentData.xlsx
+++ b/AutomaticResumeFilter/src/resources/RecuitmentData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashmittal2\Desktop\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksaravanakumar\Documents\Automatic-Resume-Filter-Automation\AutomaticResumeFilter\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F5504-5BF0-4A08-8DDB-485895BFE88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA054D3F-AA16-4556-A4B3-433445C28AB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F711A54A-70A9-46A6-B3B1-B4B5E3D10753}"/>
+    <workbookView xWindow="5760" yWindow="24" windowWidth="17280" windowHeight="8964" xr2:uid="{F711A54A-70A9-46A6-B3B1-B4B5E3D10753}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>03292022</t>
   </si>
   <si>
-    <t>ASE 2021</t>
+    <t>ASE 2023</t>
   </si>
 </sst>
 </file>
@@ -431,20 +431,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
